--- a/biology/Médecine/Melvyn_Greaves/Melvyn_Greaves.xlsx
+++ b/biology/Médecine/Melvyn_Greaves/Melvyn_Greaves.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melvyn Francis Greaves (né le 12 septembre 1941) est un biologiste britannique du cancer et professeur de biologie cellulaire à l'Institute of Cancer Research (ICR) de Londres [1]. Il est connu pour ses recherches sur la leucémie infantile et les rôles de l'évolution dans le cancer, notamment d'importantes découvertes dans la génétique et la biologie moléculaire qui sous-tendent la leucémie [2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melvyn Francis Greaves (né le 12 septembre 1941) est un biologiste britannique du cancer et professeur de biologie cellulaire à l'Institute of Cancer Research (ICR) de Londres . Il est connu pour ses recherches sur la leucémie infantile et les rôles de l'évolution dans le cancer, notamment d'importantes découvertes dans la génétique et la biologie moléculaire qui sous-tendent la leucémie ,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Greaves suit d'abord une formation en zoologie et en immunologie, obtenant un doctorat en 1968 de l'University College London.
 </t>
@@ -542,14 +556,12 @@
           <t>Carrière et recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Au milieu des années 1970, ses recherches se tournent vers la leucémie, un intérêt qu'il attribue à une visite du Great Ormond Street Hospital. Il travaille dans les laboratoires de l'Imperial Cancer Research Fund à Lincoln's Inn Fields (qui fait maintenant partie de l'Institut Francis Crick) avant de rejoindre l'ICR en 1984 [4]. À l'ICR, il est directeur du Centre de biologie cellulaire et moléculaire de la leucémie du Fonds de recherche sur la leucémie de 1984 à 2003 et lance le Centre pour l'évolution du cancer en 2013 [5].
-Publications
-Melvyn F. Greaves et Geoffrey Brown, "Purification des lymphocytes T et B humains", The Journal of Immunology, 1er janvier 1974, vol. 112 non. 1 420-423
-Melvyn F. Greaves (ed) Anticorps monoclonaux contre les récepteurs : sondes pour la structure et la fonction des récepteurs, Chapman et Hall, 1984, (ISBN 978-0-412-25330-0)
-Edward S. Henderson, Thomas Andrew Lister, Melvyn F. Greaves (eds) Leucémie, Saunders, 1996, (ISBN 978-0-7216-5381-5)
-Melvyn F. Greaves (éd.) Cancer : l'héritage évolutif, Oxford University Press, 2000, (ISBN 0-19-262835-6)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au milieu des années 1970, ses recherches se tournent vers la leucémie, un intérêt qu'il attribue à une visite du Great Ormond Street Hospital. Il travaille dans les laboratoires de l'Imperial Cancer Research Fund à Lincoln's Inn Fields (qui fait maintenant partie de l'Institut Francis Crick) avant de rejoindre l'ICR en 1984 . À l'ICR, il est directeur du Centre de biologie cellulaire et moléculaire de la leucémie du Fonds de recherche sur la leucémie de 1984 à 2003 et lance le Centre pour l'évolution du cancer en 2013 .
+</t>
         </is>
       </c>
     </row>
@@ -574,17 +586,58 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Carrière et recherche</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Melvyn F. Greaves et Geoffrey Brown, "Purification des lymphocytes T et B humains", The Journal of Immunology, 1er janvier 1974, vol. 112 non. 1 420-423
+Melvyn F. Greaves (ed) Anticorps monoclonaux contre les récepteurs : sondes pour la structure et la fonction des récepteurs, Chapman et Hall, 1984, (ISBN 978-0-412-25330-0)
+Edward S. Henderson, Thomas Andrew Lister, Melvyn F. Greaves (eds) Leucémie, Saunders, 1996, (ISBN 978-0-7216-5381-5)
+Melvyn F. Greaves (éd.) Cancer : l'héritage évolutif, Oxford University Press, 2000, (ISBN 0-19-262835-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Melvyn_Greaves</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melvyn_Greaves</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1988 Prix King Fayçal de médecine pour ses travaux sur la leucémie [6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1988 Prix King Fayçal de médecine pour ses travaux sur la leucémie 
 1999 Élu membre de l'Académie des sciences médicales, Royaume-Uni (FMedSci).
 1999 Médaille d'or, British Society for Hematology.
-2003 Élu Fellow de la Royal Society (FRS)[7].
-2015 Cancer Research UK Lifetime Achievement in Cancer Research Prize [8]
-Médaille royale 2017 de la Royal Society [9]
+2003 Élu Fellow de la Royal Society (FRS).
+2015 Cancer Research UK Lifetime Achievement in Cancer Research Prize 
+Médaille royale 2017 de la Royal Society 
 2018 Knight Bachelor pour les services à la recherche sur la leucémie infantile, dans les honneurs du Nouvel An 2019</t>
         </is>
       </c>
